--- a/test_契約管理/已完成/test_契約管理_随時対応_10解約_契約違反解約.xlsx
+++ b/test_契約管理/已完成/test_契約管理_随時対応_10解約_契約違反解約.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -14595,8 +14595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EL35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -30361,7 +30361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>

--- a/test_契約管理/已完成/test_契約管理_随時対応_10解約_契約違反解約.xlsx
+++ b/test_契約管理/已完成/test_契約管理_随時対応_10解約_契約違反解約.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5488" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5487" uniqueCount="828">
   <si>
     <t>URL:</t>
   </si>
@@ -4104,8 +4104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EM139"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4512,9 +4512,7 @@
       <c r="B55" s="64"/>
     </row>
     <row r="56" spans="1:75" s="63" customFormat="1" ht="14.25">
-      <c r="A56" s="70" t="s">
-        <v>162</v>
-      </c>
+      <c r="A56" s="70"/>
       <c r="B56" s="69" t="s">
         <v>562</v>
       </c>
@@ -14595,8 +14593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EL35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/test_契約管理/已完成/test_契約管理_随時対応_10解約_契約違反解約.xlsx
+++ b/test_契約管理/已完成/test_契約管理_随時対応_10解約_契約違反解約.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5487" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5502" uniqueCount="822">
   <si>
     <t>URL:</t>
   </si>
@@ -2357,18 +2357,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>146</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>147</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>148</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IN_FORM_002</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2378,30 +2366,6 @@
   </si>
   <si>
     <t>RESULT_002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>149</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>150</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>151</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>152</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>153</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>154</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2626,9 +2590,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3300</t>
-  </si>
-  <si>
     <t>330</t>
   </si>
   <si>
@@ -2682,10 +2643,6 @@
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>3300</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -2815,6 +2772,25 @@
   </si>
   <si>
     <t>解約（契約違反解約）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGEDOWN</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/main/div/div[1]/div/div/div/table/thead/tr/th[4]</t>
+  </si>
+  <si>
+    <t>3301</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>3306</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -4104,8 +4080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EM139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14253,10 +14229,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14339,79 +14315,63 @@
         <v>644</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.25">
-      <c r="A7" s="129" t="s">
+    <row r="7" spans="1:10" s="199" customFormat="1" ht="14.25">
+      <c r="A7" s="200" t="s">
+        <v>817</v>
+      </c>
+      <c r="C7" s="194"/>
+    </row>
+    <row r="8" spans="1:10" s="199" customFormat="1" ht="14.25">
+      <c r="A8" s="200" t="s">
+        <v>817</v>
+      </c>
+      <c r="C8" s="194"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.25">
+      <c r="A9" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="126" t="s">
-        <v>748</v>
-      </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25">
-      <c r="A8" s="129" t="s">
+      <c r="B9" s="126" t="s">
+        <v>739</v>
+      </c>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25">
+      <c r="A10" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="126" t="s">
-        <v>750</v>
-      </c>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126" t="s">
+      <c r="B10" s="126" t="s">
+        <v>741</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126" t="s">
         <v>642</v>
       </c>
-      <c r="J8" s="34"/>
-    </row>
-    <row r="9" spans="1:10" s="131" customFormat="1" ht="14.25">
-      <c r="A9" s="144" t="s">
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:10" s="131" customFormat="1" ht="14.25">
+      <c r="A11" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="132" t="s">
-        <v>751</v>
-      </c>
-      <c r="C9" s="133" t="s">
-        <v>755</v>
-      </c>
-      <c r="D9" s="134" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="126" customFormat="1" ht="14.25">
-      <c r="A10" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>756</v>
-      </c>
-      <c r="C10" s="133" t="s">
-        <v>755</v>
-      </c>
-      <c r="D10" s="134" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="126" customFormat="1" ht="14.25">
-      <c r="A11" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>757</v>
+      <c r="B11" s="132" t="s">
+        <v>742</v>
       </c>
       <c r="C11" s="133" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="D11" s="134" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="126" customFormat="1" ht="14.25">
@@ -14419,154 +14379,160 @@
         <v>1</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="C12" s="133" t="s">
-        <v>772</v>
+        <v>746</v>
       </c>
       <c r="D12" s="134" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="145" customFormat="1" ht="14.25">
-      <c r="A13" s="144" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="126" customFormat="1" ht="14.25">
+      <c r="A13" s="129" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>748</v>
+      </c>
+      <c r="C13" s="133" t="s">
+        <v>746</v>
+      </c>
+      <c r="D13" s="134" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="126" customFormat="1" ht="14.25">
+      <c r="A14" s="129" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="C14" s="133" t="s">
+        <v>763</v>
+      </c>
+      <c r="D14" s="134" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="145" customFormat="1" ht="14.25">
+      <c r="A15" s="144" t="s">
         <v>697</v>
       </c>
-      <c r="B13" s="167" t="s">
-        <v>766</v>
-      </c>
-      <c r="C13" s="148"/>
-      <c r="D13" s="149"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.25">
-      <c r="A14" s="129" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>759</v>
-      </c>
-      <c r="H14" t="s">
-        <v>643</v>
-      </c>
+      <c r="B15" s="167" t="s">
+        <v>757</v>
+      </c>
+      <c r="C15" s="148"/>
+      <c r="D15" s="149"/>
     </row>
     <row r="16" spans="1:10" ht="14.25">
       <c r="A16" s="129" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>423</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="126" customFormat="1" ht="14.25">
-      <c r="A17" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>764</v>
-      </c>
-      <c r="C17" s="133" t="s">
-        <v>792</v>
-      </c>
-      <c r="D17" s="134" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="126" customFormat="1" ht="14.25">
+        <v>750</v>
+      </c>
+      <c r="H16" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.25">
       <c r="A18" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="166" t="s">
+      <c r="B18" t="s">
         <v>423</v>
       </c>
-      <c r="H18" s="126">
+      <c r="H18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.25">
+    <row r="19" spans="1:8" s="126" customFormat="1" ht="14.25">
       <c r="A19" s="129" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>755</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>783</v>
+      </c>
+      <c r="D19" s="134" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="126" customFormat="1" ht="14.25">
+      <c r="A20" s="129" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="166" t="s">
+        <v>423</v>
+      </c>
+      <c r="H20" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.25">
+      <c r="A21" s="129" t="s">
         <v>645</v>
       </c>
-      <c r="B19" s="167" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="126" customFormat="1" ht="14.25">
-      <c r="A20" s="144" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="132" t="s">
-        <v>791</v>
-      </c>
-      <c r="C20" s="133" t="s">
-        <v>768</v>
-      </c>
-      <c r="D20" s="134" t="s">
-        <v>775</v>
-      </c>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
-    </row>
-    <row r="21" spans="1:8" s="131" customFormat="1" ht="14.25">
-      <c r="A21" s="144" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="132" t="s">
-        <v>689</v>
-      </c>
-      <c r="C21" s="133" t="s">
-        <v>769</v>
-      </c>
-      <c r="D21" s="134" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="131" customFormat="1" ht="14.25">
+      <c r="B21" s="167" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="126" customFormat="1" ht="14.25">
       <c r="A22" s="144" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="132" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="C22" s="133" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="D22" s="134" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="14.25">
-      <c r="A23" s="162" t="s">
+        <v>766</v>
+      </c>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+    </row>
+    <row r="23" spans="1:8" s="131" customFormat="1" ht="14.25">
+      <c r="A23" s="144" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="132" t="s">
+        <v>689</v>
+      </c>
+      <c r="C23" s="133" t="s">
+        <v>760</v>
+      </c>
+      <c r="D23" s="134" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="131" customFormat="1" ht="14.25">
+      <c r="A24" s="144" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="132" t="s">
+        <v>761</v>
+      </c>
+      <c r="C24" s="133" t="s">
+        <v>765</v>
+      </c>
+      <c r="D24" s="134" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.25">
+      <c r="A25" s="162" t="s">
         <v>697</v>
       </c>
-      <c r="B23" s="167" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="14.25">
-      <c r="A24" s="129" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" t="s">
-        <v>510</v>
-      </c>
-      <c r="H24" s="126" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="126" customFormat="1" ht="14.25">
-      <c r="A25" s="129" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="166" t="s">
-        <v>423</v>
-      </c>
-      <c r="H25" s="126">
-        <v>1</v>
+      <c r="B25" s="167" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.25">
@@ -14574,11 +14540,38 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
+        <v>510</v>
+      </c>
+      <c r="H26" s="126" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="126" customFormat="1" ht="14.25">
+      <c r="A27" s="129" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="166" t="s">
+        <v>423</v>
+      </c>
+      <c r="H27" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="199" customFormat="1" ht="14.25">
+      <c r="A28" s="200" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.25">
+      <c r="A29" s="129" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.25">
-      <c r="A27" s="129" t="s">
+    <row r="30" spans="1:8" ht="14.25">
+      <c r="A30" s="129" t="s">
         <v>647</v>
       </c>
     </row>
@@ -14594,7 +14587,7 @@
   <dimension ref="A1:EL35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14772,8 +14765,8 @@
       <c r="I4" s="172" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="172" t="s">
-        <v>795</v>
+      <c r="J4" s="198" t="s">
+        <v>820</v>
       </c>
       <c r="K4" s="169" t="s">
         <v>166</v>
@@ -14860,13 +14853,13 @@
         <v>166</v>
       </c>
       <c r="AM4" s="172" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="AN4" s="172" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="AO4" s="172" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="AP4" s="169" t="s">
         <v>166</v>
@@ -15461,7 +15454,7 @@
         <v>166</v>
       </c>
       <c r="G9" s="172" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="H9" s="172" t="s">
         <v>650</v>
@@ -15473,7 +15466,7 @@
         <v>166</v>
       </c>
       <c r="K9" s="172" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="L9" s="172" t="s">
         <v>217</v>
@@ -15631,10 +15624,10 @@
         <v>166</v>
       </c>
       <c r="G10" s="172" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="H10" s="172" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="I10" s="172" t="s">
         <v>651</v>
@@ -15643,7 +15636,7 @@
         <v>166</v>
       </c>
       <c r="K10" s="172" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="L10" s="172" t="s">
         <v>217</v>
@@ -15801,10 +15794,10 @@
         <v>166</v>
       </c>
       <c r="G11" s="172" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="H11" s="172" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="I11" s="172" t="s">
         <v>651</v>
@@ -15813,7 +15806,7 @@
         <v>166</v>
       </c>
       <c r="K11" s="172" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="L11" s="172" t="s">
         <v>217</v>
@@ -15971,7 +15964,7 @@
         <v>166</v>
       </c>
       <c r="G12" s="172" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="H12" s="172" t="s">
         <v>652</v>
@@ -15983,7 +15976,7 @@
         <v>166</v>
       </c>
       <c r="K12" s="172" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="L12" s="172" t="s">
         <v>217</v>
@@ -16141,10 +16134,10 @@
         <v>166</v>
       </c>
       <c r="G13" s="172" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="H13" s="172" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="I13" s="172" t="s">
         <v>651</v>
@@ -16153,7 +16146,7 @@
         <v>166</v>
       </c>
       <c r="K13" s="172" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="L13" s="172" t="s">
         <v>217</v>
@@ -16311,10 +16304,10 @@
         <v>166</v>
       </c>
       <c r="G14" s="172" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="H14" s="172" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="I14" s="172" t="s">
         <v>651</v>
@@ -16323,7 +16316,7 @@
         <v>166</v>
       </c>
       <c r="K14" s="172" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="L14" s="172" t="s">
         <v>217</v>
@@ -19609,13 +19602,13 @@
         <v>218</v>
       </c>
       <c r="L35" s="177" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="M35" s="177" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="N35" s="177" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="O35" s="174" t="s">
         <v>166</v>
@@ -19627,7 +19620,7 @@
         <v>166</v>
       </c>
       <c r="R35" s="177" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -19639,10 +19632,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19660,414 +19653,418 @@
       <c r="A2" s="35"/>
       <c r="C2" s="33"/>
     </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" ht="14.25">
-      <c r="A3" s="35"/>
-      <c r="C3" s="33"/>
+    <row r="3" spans="1:10" s="199" customFormat="1" ht="14.25">
+      <c r="A3" s="200"/>
+      <c r="C3" s="195"/>
     </row>
     <row r="4" spans="1:10" s="52" customFormat="1" ht="14.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="200" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>776</v>
+        <v>819</v>
       </c>
       <c r="C4" s="33"/>
-      <c r="H4" s="166" t="s">
-        <v>777</v>
-      </c>
     </row>
     <row r="5" spans="1:10" s="52" customFormat="1" ht="14.25">
-      <c r="A5" s="144" t="s">
+      <c r="A5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="52" t="s">
+        <v>767</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="H5" s="166" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="199" customFormat="1" ht="14.25">
+      <c r="A6" s="200" t="s">
+        <v>817</v>
+      </c>
+      <c r="C6" s="195"/>
+    </row>
+    <row r="7" spans="1:10" s="52" customFormat="1" ht="14.25">
+      <c r="A7" s="144" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="131" t="s">
         <v>424</v>
-      </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="52" customFormat="1" ht="15">
-      <c r="A6" s="162" t="s">
-        <v>778</v>
-      </c>
-      <c r="B6" s="166" t="s">
-        <v>779</v>
-      </c>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="20"/>
-      <c r="H6" s="131"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.25">
-      <c r="A7" s="162" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="131" t="s">
-        <v>780</v>
       </c>
       <c r="C7" s="131"/>
       <c r="D7" s="131"/>
       <c r="E7" s="131"/>
-      <c r="J7" s="166" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25">
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="52" customFormat="1" ht="15">
       <c r="A8" s="162" t="s">
-        <v>781</v>
-      </c>
-      <c r="B8" s="145"/>
+        <v>769</v>
+      </c>
+      <c r="B8" s="166" t="s">
+        <v>770</v>
+      </c>
       <c r="C8" s="131"/>
       <c r="D8" s="131"/>
       <c r="E8" s="131"/>
-    </row>
-    <row r="9" spans="1:10" s="166" customFormat="1" ht="14.25">
-      <c r="A9" s="162"/>
-    </row>
-    <row r="10" spans="1:10" s="166" customFormat="1" ht="14.25">
+      <c r="F8" s="20"/>
+      <c r="H8" s="131"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.25">
+      <c r="A9" s="162" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="131" t="s">
+        <v>771</v>
+      </c>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="J9" s="166" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25">
       <c r="A10" s="162" t="s">
+        <v>772</v>
+      </c>
+      <c r="B10" s="145"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+    </row>
+    <row r="11" spans="1:10" s="166" customFormat="1" ht="14.25">
+      <c r="A11" s="162"/>
+    </row>
+    <row r="12" spans="1:10" s="166" customFormat="1" ht="14.25">
+      <c r="A12" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="157" t="s">
+      <c r="B12" s="157" t="s">
         <v>690</v>
       </c>
-      <c r="C10" s="161"/>
-    </row>
-    <row r="11" spans="1:10" s="166" customFormat="1" ht="14.25">
-      <c r="A11" s="162" t="s">
+      <c r="C12" s="161"/>
+    </row>
+    <row r="13" spans="1:10" s="199" customFormat="1" ht="14.25">
+      <c r="A13" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="166" t="s">
-        <v>776</v>
-      </c>
-      <c r="C11" s="161"/>
-      <c r="H11" s="166" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25">
-      <c r="A12" s="162" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="131" t="s">
-        <v>520</v>
-      </c>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="H12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="166" customFormat="1" ht="14.25">
-      <c r="A13" s="162" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="166" t="s">
-        <v>618</v>
-      </c>
+      <c r="B13" s="199" t="s">
+        <v>819</v>
+      </c>
+      <c r="C13" s="195"/>
     </row>
     <row r="14" spans="1:10" s="166" customFormat="1" ht="14.25">
       <c r="A14" s="162" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="166" customFormat="1" ht="14.25">
-      <c r="A15" s="162" t="s">
-        <v>778</v>
-      </c>
-      <c r="B15" s="167" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="166" customFormat="1" ht="14.25">
+        <v>15</v>
+      </c>
+      <c r="B14" s="166" t="s">
+        <v>767</v>
+      </c>
+      <c r="C14" s="161"/>
+      <c r="H14" s="166" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="199" customFormat="1" ht="14.25">
+      <c r="A15" s="200" t="s">
+        <v>817</v>
+      </c>
+      <c r="C15" s="195"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.25">
       <c r="A16" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="166" t="s">
-        <v>782</v>
-      </c>
-      <c r="J16" s="166" t="s">
-        <v>784</v>
+      <c r="B16" s="131" t="s">
+        <v>520</v>
+      </c>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="H16">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="166" customFormat="1" ht="14.25">
       <c r="A17" s="162" t="s">
-        <v>781</v>
+        <v>15</v>
+      </c>
+      <c r="B17" s="166" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="166" customFormat="1" ht="14.25">
       <c r="A18" s="162" t="s">
-        <v>778</v>
-      </c>
-      <c r="B18" s="167" t="s">
-        <v>817</v>
+        <v>772</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="166" customFormat="1" ht="14.25">
       <c r="A19" s="162" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="166" t="s">
-        <v>785</v>
+        <v>769</v>
+      </c>
+      <c r="B19" s="167" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="166" customFormat="1" ht="14.25">
       <c r="A20" s="162" t="s">
-        <v>781</v>
+        <v>15</v>
+      </c>
+      <c r="B20" s="166" t="s">
+        <v>773</v>
+      </c>
+      <c r="J20" s="166" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="166" customFormat="1" ht="14.25">
       <c r="A21" s="162" t="s">
-        <v>778</v>
-      </c>
-      <c r="B21" s="167" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="131" customFormat="1" ht="14.25">
-      <c r="A22" s="144"/>
+        <v>772</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="166" customFormat="1" ht="14.25">
+      <c r="A22" s="162" t="s">
+        <v>769</v>
+      </c>
+      <c r="B22" s="167" t="s">
+        <v>806</v>
+      </c>
     </row>
     <row r="23" spans="1:10" s="166" customFormat="1" ht="14.25">
       <c r="A23" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="157" t="s">
-        <v>690</v>
-      </c>
-      <c r="C23" s="161"/>
+        <v>15</v>
+      </c>
+      <c r="B23" s="166" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="24" spans="1:10" s="166" customFormat="1" ht="14.25">
       <c r="A24" s="162" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="166" t="s">
-        <v>776</v>
-      </c>
-      <c r="C24" s="161"/>
-      <c r="H24" s="166" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="14.25">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="166" customFormat="1" ht="14.25">
       <c r="A25" s="162" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>691</v>
-      </c>
-      <c r="H25" s="131">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="182" customFormat="1" ht="14.25">
-      <c r="A26" s="190" t="s">
-        <v>697</v>
-      </c>
-      <c r="B26" s="167" t="s">
-        <v>819</v>
-      </c>
+        <v>769</v>
+      </c>
+      <c r="B25" s="167" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="131" customFormat="1" ht="14.25">
+      <c r="A26" s="144"/>
     </row>
     <row r="27" spans="1:10" s="166" customFormat="1" ht="14.25">
       <c r="A27" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="132" t="s">
-        <v>719</v>
-      </c>
-      <c r="C27" s="133" t="s">
-        <v>421</v>
-      </c>
-      <c r="D27" s="134" t="s">
-        <v>720</v>
-      </c>
-      <c r="E27" s="168"/>
-    </row>
-    <row r="28" spans="1:10" s="166" customFormat="1" ht="14.25">
-      <c r="A28" s="162" t="s">
-        <v>697</v>
-      </c>
-      <c r="B28" s="167" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="14.25">
+        <v>0</v>
+      </c>
+      <c r="B27" s="157" t="s">
+        <v>690</v>
+      </c>
+      <c r="C27" s="161"/>
+    </row>
+    <row r="28" spans="1:10" s="199" customFormat="1" ht="14.25">
+      <c r="A28" s="200" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="199" t="s">
+        <v>819</v>
+      </c>
+      <c r="C28" s="195"/>
+    </row>
+    <row r="29" spans="1:10" s="166" customFormat="1" ht="14.25">
       <c r="A29" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="B29" t="s">
-        <v>691</v>
-      </c>
+      <c r="B29" s="166" t="s">
+        <v>767</v>
+      </c>
+      <c r="C29" s="161"/>
       <c r="H29" s="166" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="182" customFormat="1" ht="14.25">
-      <c r="A30" s="190" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="182" t="s">
-        <v>691</v>
-      </c>
-      <c r="H30" s="182">
-        <v>4</v>
-      </c>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="199" customFormat="1" ht="14.25">
+      <c r="A30" s="200" t="s">
+        <v>817</v>
+      </c>
+      <c r="C30" s="195"/>
     </row>
     <row r="31" spans="1:10" ht="14.25">
       <c r="A31" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="131" t="s">
-        <v>692</v>
-      </c>
-      <c r="D31" s="145"/>
-      <c r="J31" s="166" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="145" customFormat="1" ht="14.25">
-      <c r="A32" s="162" t="s">
-        <v>781</v>
-      </c>
-      <c r="B32" s="166"/>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-    </row>
-    <row r="33" spans="1:10" ht="14.25">
-      <c r="A33" s="144"/>
-      <c r="B33" s="166"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
+      <c r="B31" t="s">
+        <v>691</v>
+      </c>
+      <c r="H31" s="131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="182" customFormat="1" ht="14.25">
+      <c r="A32" s="190" t="s">
+        <v>697</v>
+      </c>
+      <c r="B32" s="167" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="166" customFormat="1" ht="14.25">
+      <c r="A33" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="132" t="s">
+        <v>719</v>
+      </c>
+      <c r="C33" s="133" t="s">
+        <v>421</v>
+      </c>
+      <c r="D33" s="134" t="s">
+        <v>720</v>
+      </c>
+      <c r="E33" s="168"/>
     </row>
     <row r="34" spans="1:10" s="166" customFormat="1" ht="14.25">
       <c r="A34" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="157" t="s">
-        <v>690</v>
-      </c>
-      <c r="C34" s="161"/>
-    </row>
-    <row r="35" spans="1:10" s="166" customFormat="1" ht="14.25">
+        <v>697</v>
+      </c>
+      <c r="B34" s="167" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14.25">
       <c r="A35" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="166" t="s">
-        <v>776</v>
-      </c>
-      <c r="C35" s="161"/>
+      <c r="B35" t="s">
+        <v>691</v>
+      </c>
       <c r="H35" s="166" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.25">
-      <c r="A36" s="162" t="s">
+    <row r="36" spans="1:10" s="182" customFormat="1" ht="14.25">
+      <c r="A36" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="182" t="s">
+        <v>691</v>
+      </c>
+      <c r="H36" s="182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="14.25">
+      <c r="A37" s="162" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="131" t="s">
+        <v>692</v>
+      </c>
+      <c r="D37" s="145"/>
+      <c r="J37" s="166" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="145" customFormat="1" ht="14.25">
+      <c r="A38" s="162" t="s">
+        <v>772</v>
+      </c>
+      <c r="B38" s="166"/>
+      <c r="C38" s="166"/>
+      <c r="D38" s="166"/>
+      <c r="E38" s="166"/>
+      <c r="F38" s="166"/>
+    </row>
+    <row r="39" spans="1:10" ht="14.25">
+      <c r="A39" s="144"/>
+      <c r="B39" s="166"/>
+      <c r="D39" s="166"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="166"/>
+    </row>
+    <row r="40" spans="1:10" s="166" customFormat="1" ht="14.25">
+      <c r="A40" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="157" t="s">
+        <v>690</v>
+      </c>
+      <c r="C40" s="161"/>
+    </row>
+    <row r="41" spans="1:10" s="199" customFormat="1" ht="14.25">
+      <c r="A41" s="200" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="199" t="s">
+        <v>819</v>
+      </c>
+      <c r="C41" s="195"/>
+    </row>
+    <row r="42" spans="1:10" s="166" customFormat="1" ht="14.25">
+      <c r="A42" s="162" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="166" t="s">
+        <v>767</v>
+      </c>
+      <c r="C42" s="161"/>
+      <c r="H42" s="166" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="199" customFormat="1" ht="14.25">
+      <c r="A43" s="200" t="s">
+        <v>817</v>
+      </c>
+      <c r="C43" s="195"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.25">
+      <c r="A44" s="162" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
         <v>693</v>
       </c>
-      <c r="H36">
+      <c r="H44">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" s="166" customFormat="1" ht="14.25">
-      <c r="A37" s="162" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="132" t="s">
-        <v>669</v>
-      </c>
-      <c r="C37" s="133" t="s">
-        <v>788</v>
-      </c>
-      <c r="D37" s="134" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="150" customFormat="1" ht="14.25">
-      <c r="A38" s="162" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="150" t="s">
-        <v>790</v>
-      </c>
-      <c r="H38" s="166" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="182" customFormat="1" ht="14.25">
-      <c r="A39" s="190" t="s">
-        <v>697</v>
-      </c>
-      <c r="B39" s="167" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="14.25">
-      <c r="A40" s="162" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" t="s">
-        <v>695</v>
-      </c>
-      <c r="J40" s="166" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="14.25">
-      <c r="A41" s="162" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="166" customFormat="1" ht="14.25">
-      <c r="A44" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="157" t="s">
-        <v>690</v>
-      </c>
-      <c r="C44" s="161"/>
     </row>
     <row r="45" spans="1:10" s="166" customFormat="1" ht="14.25">
       <c r="A45" s="162" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="166" t="s">
-        <v>776</v>
-      </c>
-      <c r="C45" s="161"/>
-      <c r="H45" s="166" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="14.25">
+        <v>1</v>
+      </c>
+      <c r="B45" s="132" t="s">
+        <v>669</v>
+      </c>
+      <c r="C45" s="133" t="s">
+        <v>779</v>
+      </c>
+      <c r="D45" s="134" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="150" customFormat="1" ht="14.25">
       <c r="A46" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="B46" t="s">
-        <v>694</v>
-      </c>
-      <c r="H46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="14.25">
-      <c r="A47" s="197" t="s">
+      <c r="B46" s="150" t="s">
+        <v>781</v>
+      </c>
+      <c r="H46" s="166" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="182" customFormat="1" ht="14.25">
+      <c r="A47" s="190" t="s">
         <v>697</v>
       </c>
       <c r="B47" s="167" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25">
@@ -20075,19 +20072,90 @@
         <v>15</v>
       </c>
       <c r="B48" t="s">
+        <v>695</v>
+      </c>
+      <c r="J48" s="166" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="14.25">
+      <c r="A49" s="162" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="166" customFormat="1" ht="14.25">
+      <c r="A52" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="157" t="s">
+        <v>690</v>
+      </c>
+      <c r="C52" s="161"/>
+    </row>
+    <row r="53" spans="1:10" s="199" customFormat="1" ht="14.25">
+      <c r="A53" s="200" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="199" t="s">
+        <v>819</v>
+      </c>
+      <c r="C53" s="195"/>
+    </row>
+    <row r="54" spans="1:10" s="166" customFormat="1" ht="14.25">
+      <c r="A54" s="162" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="166" t="s">
+        <v>767</v>
+      </c>
+      <c r="C54" s="161"/>
+      <c r="H54" s="166" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="199" customFormat="1" ht="14.25">
+      <c r="A55" s="200" t="s">
+        <v>817</v>
+      </c>
+      <c r="C55" s="195"/>
+    </row>
+    <row r="56" spans="1:10" ht="14.25">
+      <c r="A56" s="162" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>694</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="14.25">
+      <c r="A57" s="197" t="s">
+        <v>697</v>
+      </c>
+      <c r="B57" s="167" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="14.25">
+      <c r="A58" s="162" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
         <v>696</v>
       </c>
-      <c r="J48" s="166" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="14.25">
-      <c r="A49" s="162" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" s="193" customFormat="1" ht="14.25">
-      <c r="A50" s="197"/>
+      <c r="J58" s="166" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="14.25">
+      <c r="A59" s="162" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="193" customFormat="1" ht="14.25">
+      <c r="A60" s="197"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -20100,8 +20168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EL37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20279,8 +20347,8 @@
       <c r="I4" s="181" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="181" t="s">
-        <v>814</v>
+      <c r="J4" s="198" t="s">
+        <v>821</v>
       </c>
       <c r="K4" s="178" t="s">
         <v>166</v>
@@ -20367,13 +20435,13 @@
         <v>166</v>
       </c>
       <c r="AM4" s="181" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="AN4" s="181" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="AO4" s="181" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="AP4" s="178" t="s">
         <v>166</v>
@@ -20968,7 +21036,7 @@
         <v>166</v>
       </c>
       <c r="G9" s="177" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="H9" s="177" t="s">
         <v>650</v>
@@ -20980,7 +21048,7 @@
         <v>166</v>
       </c>
       <c r="K9" s="177" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="L9" s="177" t="s">
         <v>217</v>
@@ -21138,19 +21206,19 @@
         <v>166</v>
       </c>
       <c r="G10" s="177" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="H10" s="177" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="I10" s="177" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="J10" s="174" t="s">
         <v>166</v>
       </c>
       <c r="K10" s="177" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="L10" s="177" t="s">
         <v>217</v>
@@ -21308,19 +21376,19 @@
         <v>166</v>
       </c>
       <c r="G11" s="177" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="H11" s="177" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="I11" s="177" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="J11" s="174" t="s">
         <v>166</v>
       </c>
       <c r="K11" s="177" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="L11" s="177" t="s">
         <v>217</v>
@@ -21478,19 +21546,19 @@
         <v>166</v>
       </c>
       <c r="G12" s="177" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="H12" s="177" t="s">
         <v>652</v>
       </c>
       <c r="I12" s="177" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="J12" s="174" t="s">
         <v>166</v>
       </c>
       <c r="K12" s="177" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="L12" s="177" t="s">
         <v>217</v>
@@ -21648,19 +21716,19 @@
         <v>166</v>
       </c>
       <c r="G13" s="177" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="H13" s="177" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="I13" s="177" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="J13" s="174" t="s">
         <v>166</v>
       </c>
       <c r="K13" s="177" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="L13" s="177" t="s">
         <v>217</v>
@@ -21818,19 +21886,19 @@
         <v>166</v>
       </c>
       <c r="G14" s="177" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="H14" s="177" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="I14" s="177" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="J14" s="174" t="s">
         <v>166</v>
       </c>
       <c r="K14" s="177" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="L14" s="177" t="s">
         <v>217</v>
@@ -25100,7 +25168,7 @@
         <v>166</v>
       </c>
       <c r="G35" s="192" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="H35" s="192" t="s">
         <v>218</v>
@@ -25115,13 +25183,13 @@
         <v>218</v>
       </c>
       <c r="L35" s="192" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="M35" s="192" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="N35" s="192" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="O35" s="186" t="s">
         <v>166</v>
@@ -25133,7 +25201,7 @@
         <v>166</v>
       </c>
       <c r="R35" s="192" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
     </row>
     <row r="36" spans="2:18" s="131" customFormat="1"/>
@@ -25148,10 +25216,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -25168,134 +25236,163 @@
       </c>
       <c r="C1" s="161"/>
     </row>
-    <row r="2" spans="1:8" s="166" customFormat="1" ht="14.25">
-      <c r="A2" s="162"/>
-      <c r="C2" s="161"/>
+    <row r="2" spans="1:8" s="199" customFormat="1" ht="14.25">
+      <c r="A2" s="200"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="195"/>
     </row>
     <row r="3" spans="1:8" s="166" customFormat="1" ht="14.25">
       <c r="A3" s="162"/>
       <c r="C3" s="161"/>
     </row>
-    <row r="4" spans="1:8" s="166" customFormat="1" ht="14.25">
-      <c r="A4" s="162" t="s">
+    <row r="4" spans="1:8" s="199" customFormat="1" ht="14.25">
+      <c r="A4" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="166" t="s">
-        <v>776</v>
-      </c>
-      <c r="C4" s="161"/>
-      <c r="H4" s="166" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="131" customFormat="1" ht="14.25">
-      <c r="A5" s="144"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="162" t="s">
+      <c r="B4" s="199" t="s">
+        <v>819</v>
+      </c>
+      <c r="C4" s="195"/>
+    </row>
+    <row r="5" spans="1:8" s="166" customFormat="1" ht="14.25">
+      <c r="A5" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="163" t="s">
-        <v>724</v>
-      </c>
-      <c r="H6" t="s">
-        <v>725</v>
+      <c r="B5" s="166" t="s">
+        <v>767</v>
+      </c>
+      <c r="C5" s="161"/>
+      <c r="H5" s="166" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="131" customFormat="1" ht="14.25">
+      <c r="A6" s="200" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="162" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="193" customFormat="1" ht="14.25">
-      <c r="A9" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="196" t="s">
-        <v>639</v>
-      </c>
-      <c r="C9" s="195"/>
+        <v>15</v>
+      </c>
+      <c r="B7" s="163" t="s">
+        <v>724</v>
+      </c>
+      <c r="H7" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25">
+      <c r="A8" s="162" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="10" spans="1:8" s="193" customFormat="1" ht="14.25">
       <c r="A10" s="197" t="s">
-        <v>640</v>
+        <v>0</v>
+      </c>
+      <c r="B10" s="196" t="s">
+        <v>639</v>
       </c>
       <c r="C10" s="195"/>
     </row>
     <row r="11" spans="1:8" s="193" customFormat="1" ht="14.25">
       <c r="A11" s="197" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="193" t="s">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="C11" s="195"/>
-      <c r="H11" s="193" t="s">
-        <v>671</v>
-      </c>
     </row>
     <row r="12" spans="1:8" s="193" customFormat="1" ht="14.25">
       <c r="A12" s="197" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="193" t="s">
-        <v>641</v>
-      </c>
-      <c r="C12" s="194"/>
+        <v>670</v>
+      </c>
+      <c r="C12" s="195"/>
       <c r="H12" s="193" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="193" customFormat="1" ht="14.25">
-      <c r="A13" s="197" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="193" t="s">
-        <v>748</v>
-      </c>
-      <c r="H13" s="193" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="199" customFormat="1" ht="14.25">
+      <c r="A13" s="200" t="s">
+        <v>817</v>
+      </c>
+      <c r="C13" s="195"/>
+    </row>
+    <row r="14" spans="1:8" s="193" customFormat="1" ht="14.25">
       <c r="A14" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>826</v>
-      </c>
-      <c r="H14" s="199" t="s">
-        <v>827</v>
+      <c r="B14" s="193" t="s">
+        <v>641</v>
+      </c>
+      <c r="C14" s="194"/>
+      <c r="H14" s="193" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="199" customFormat="1" ht="14.25">
       <c r="A15" s="200" t="s">
+        <v>817</v>
+      </c>
+      <c r="C15" s="194"/>
+    </row>
+    <row r="16" spans="1:8" s="193" customFormat="1" ht="14.25">
+      <c r="A16" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="199" t="s">
+      <c r="B16" s="193" t="s">
+        <v>739</v>
+      </c>
+      <c r="H16" s="193" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.25">
+      <c r="A17" s="197" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>815</v>
+      </c>
+      <c r="H17" s="199" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="199" customFormat="1" ht="14.25">
+      <c r="A18" s="200" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="199" customFormat="1" ht="14.25">
+      <c r="A19" s="200" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="199" t="s">
         <v>694</v>
       </c>
-      <c r="H15" s="199">
+      <c r="H19" s="199">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="199" customFormat="1" ht="14.25">
-      <c r="A16" s="200" t="s">
+    <row r="20" spans="1:8" s="199" customFormat="1" ht="14.25">
+      <c r="A20" s="200" t="s">
         <v>697</v>
       </c>
-      <c r="B16" s="199" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="199" customFormat="1" ht="14.25">
-      <c r="A17" s="200" t="s">
+      <c r="B20" s="199" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="199" customFormat="1" ht="14.25">
+      <c r="A21" s="200" t="s">
         <v>697</v>
       </c>
-      <c r="B17" s="201" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="199" customFormat="1"/>
+      <c r="B21" s="201" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="199" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25487,7 +25584,7 @@
         <v>152</v>
       </c>
       <c r="J4" s="192" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="K4" s="186" t="s">
         <v>166</v>
@@ -25574,13 +25671,13 @@
         <v>166</v>
       </c>
       <c r="AM4" s="192" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="AN4" s="192" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="AO4" s="192" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="AP4" s="186" t="s">
         <v>166</v>
@@ -26175,7 +26272,7 @@
         <v>166</v>
       </c>
       <c r="G9" s="192" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="H9" s="192" t="s">
         <v>650</v>
@@ -26187,7 +26284,7 @@
         <v>166</v>
       </c>
       <c r="K9" s="192" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="L9" s="192" t="s">
         <v>217</v>
@@ -26345,19 +26442,19 @@
         <v>166</v>
       </c>
       <c r="G10" s="192" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="H10" s="192" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="I10" s="192" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="J10" s="186" t="s">
         <v>166</v>
       </c>
       <c r="K10" s="192" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="L10" s="192" t="s">
         <v>217</v>
@@ -26515,19 +26612,19 @@
         <v>166</v>
       </c>
       <c r="G11" s="192" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="H11" s="192" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="I11" s="192" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="J11" s="186" t="s">
         <v>166</v>
       </c>
       <c r="K11" s="192" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="L11" s="192" t="s">
         <v>217</v>
@@ -26685,19 +26782,19 @@
         <v>166</v>
       </c>
       <c r="G12" s="192" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="H12" s="192" t="s">
         <v>652</v>
       </c>
       <c r="I12" s="192" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="J12" s="186" t="s">
         <v>166</v>
       </c>
       <c r="K12" s="192" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="L12" s="192" t="s">
         <v>217</v>
@@ -26855,19 +26952,19 @@
         <v>166</v>
       </c>
       <c r="G13" s="192" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="H13" s="192" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="I13" s="192" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="J13" s="186" t="s">
         <v>166</v>
       </c>
       <c r="K13" s="192" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="L13" s="192" t="s">
         <v>217</v>
@@ -27025,19 +27122,19 @@
         <v>166</v>
       </c>
       <c r="G14" s="192" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="H14" s="192" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="I14" s="192" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="J14" s="186" t="s">
         <v>166</v>
       </c>
       <c r="K14" s="192" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="L14" s="192" t="s">
         <v>217</v>
@@ -29653,7 +29750,7 @@
         <v>513</v>
       </c>
       <c r="I28" s="198" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="J28" s="186" t="s">
         <v>166</v>
@@ -30307,7 +30404,7 @@
         <v>166</v>
       </c>
       <c r="G35" s="192" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="H35" s="192" t="s">
         <v>218</v>
@@ -30322,13 +30419,13 @@
         <v>218</v>
       </c>
       <c r="L35" s="192" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="M35" s="192" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="N35" s="192" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="O35" s="186" t="s">
         <v>166</v>
@@ -30340,7 +30437,7 @@
         <v>166</v>
       </c>
       <c r="R35" s="192" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
     </row>
     <row r="36" spans="2:18" s="182" customFormat="1"/>
@@ -30360,7 +30457,7 @@
   <dimension ref="A1:CC60"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -30454,7 +30551,7 @@
     </row>
     <row r="5" spans="2:81" s="167" customFormat="1" ht="12">
       <c r="B5" s="167" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="C5" s="163" t="s">
         <v>600</v>
@@ -30468,78 +30565,54 @@
       <c r="F5" s="167" t="s">
         <v>649</v>
       </c>
-      <c r="I5" s="167" t="s">
-        <v>727</v>
-      </c>
     </row>
     <row r="6" spans="2:81" s="167" customFormat="1" ht="12">
       <c r="B6" s="167" t="s">
-        <v>740</v>
-      </c>
-      <c r="I6" s="167" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="7" spans="2:81" s="167" customFormat="1" ht="12">
       <c r="B7" s="167" t="s">
-        <v>741</v>
-      </c>
-      <c r="I7" s="167" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="8" spans="2:81" s="167" customFormat="1" ht="12">
       <c r="B8" s="167" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="D8" s="167" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E8" s="167" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F8" s="167" t="s">
-        <v>732</v>
-      </c>
-      <c r="I8" s="167" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="9" spans="2:81" s="167" customFormat="1" ht="12">
       <c r="B9" s="167" t="s">
-        <v>743</v>
-      </c>
-      <c r="I9" s="167" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="10" spans="2:81" s="167" customFormat="1" ht="12">
       <c r="B10" s="167" t="s">
-        <v>744</v>
-      </c>
-      <c r="I10" s="167" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="11" spans="2:81" s="167" customFormat="1" ht="12">
       <c r="B11" s="167" t="s">
-        <v>745</v>
-      </c>
-      <c r="I11" s="167" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="12" spans="2:81" s="167" customFormat="1" ht="12">
       <c r="B12" s="167" t="s">
-        <v>746</v>
-      </c>
-      <c r="I12" s="167" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="13" spans="2:81" s="167" customFormat="1" ht="12">
       <c r="B13" s="167" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="D13" s="167" t="s">
         <v>700</v>
@@ -30549,9 +30622,6 @@
       </c>
       <c r="F13" s="167" t="s">
         <v>702</v>
-      </c>
-      <c r="I13" s="167" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="14" spans="2:81" s="167" customFormat="1" ht="12"/>
